--- a/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
+++ b/InputData/dist-heat/BFoHPbF/BAU Frac of Heat Provided by Fuel.xlsx
@@ -1,41 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman.hennig\World Resources Institute\TRAC City - HK 2050 is now\InputData FOR HONG KONG\UPDATE InputData for Hong Kong\InputData\dist-heat\BFoHPbF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\dist-heat\BFoHPbF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_29C451D56B7A70C9F8313ECB5BB9DCD839B706C5" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F3933C12-7D36-44A5-A5A0-7E296A53E641}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BFoHPbF" sheetId="3" r:id="rId2"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="BFoHPbF" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Source:</t>
   </si>
   <si>
+    <t>International Energy Agency</t>
+  </si>
+  <si>
+    <t>CHP/DHC Country Scorecard: United States</t>
+  </si>
+  <si>
+    <t>http://www.iea.org/publications/insights/insightpublications/US_CountryScorecard_FINAL.pdf</t>
+  </si>
+  <si>
+    <t>Page 37, Table 2, Sub-table 3</t>
+  </si>
+  <si>
     <t>Note:</t>
   </si>
   <si>
+    <t>We use these as a stand-in for the fuel use fractions of district heating</t>
+  </si>
+  <si>
+    <t>systems (about half of which are CHP systems), because we do not</t>
+  </si>
+  <si>
+    <t>have data specifically on fuel use fractions of district heating systems.</t>
+  </si>
+  <si>
+    <t>Natural gas</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Biogas/Biomass</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Fuel input for additional CHP capacity (GWh)</t>
+  </si>
+  <si>
+    <t>We don't have fuel fractions used by the total installed base, so we use</t>
+  </si>
+  <si>
+    <t>Sum of Years Above</t>
+  </si>
+  <si>
+    <t>Fraction by Fuel</t>
+  </si>
+  <si>
     <t>electricity</t>
   </si>
   <si>
@@ -54,20 +95,41 @@
     <t>heat</t>
   </si>
   <si>
+    <t>Reallocating "Other" into modeled fuel categories</t>
+  </si>
+  <si>
+    <t>the fuel fractions from the available years' newly installed capacities.</t>
+  </si>
+  <si>
     <t>BFoHPbF BAU Fraction of Heat Provided by Fuel</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Hong Kong does not use district heating.</t>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>LPG propane or butane</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>Fuel use by fuel (fractions) are provided for CHP systems.</t>
+  </si>
+  <si>
+    <t>Fraction of Heat Provided by Fuel (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,13 +145,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,18 +177,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -204,23 +300,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -256,23 +335,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -448,11 +510,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +524,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -470,806 +532,1960 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:AJ7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+      <selection sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2">
+        <v>2006</v>
+      </c>
+      <c r="D2">
+        <v>2008</v>
+      </c>
+      <c r="E2">
+        <v>2009</v>
+      </c>
+      <c r="F2">
+        <v>2020</v>
+      </c>
+      <c r="G2">
+        <v>2022</v>
+      </c>
+      <c r="H2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>55622.2</v>
+      </c>
+      <c r="C3">
+        <v>7957.9</v>
+      </c>
+      <c r="D3">
+        <v>5249.4</v>
+      </c>
+      <c r="E3">
+        <v>5271</v>
+      </c>
+      <c r="F3">
+        <v>14497.7</v>
+      </c>
+      <c r="G3">
+        <v>5215.6000000000004</v>
+      </c>
+      <c r="H3">
+        <v>8544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>8003.3</v>
+      </c>
+      <c r="C4">
+        <v>876</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3551.7</v>
+      </c>
+      <c r="F4">
+        <v>1513.1</v>
+      </c>
+      <c r="G4">
+        <v>995.4</v>
+      </c>
+      <c r="H4">
+        <v>12343.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>4050.7</v>
+      </c>
+      <c r="C5">
+        <v>456.6</v>
+      </c>
+      <c r="D5">
+        <v>18.5</v>
+      </c>
+      <c r="E5">
+        <v>568.20000000000005</v>
+      </c>
+      <c r="F5">
+        <v>115.9</v>
+      </c>
+      <c r="G5">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>199.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>1090.2</v>
+      </c>
+      <c r="C6">
+        <v>2533.9</v>
+      </c>
+      <c r="D6">
+        <v>859.4</v>
+      </c>
+      <c r="E6">
+        <v>10628.4</v>
+      </c>
+      <c r="F6">
+        <v>1133.5</v>
+      </c>
+      <c r="G6">
+        <v>4829.3999999999996</v>
+      </c>
+      <c r="H6">
+        <v>4055.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>7030.9</v>
+      </c>
+      <c r="C7">
+        <v>4116.6000000000004</v>
+      </c>
+      <c r="D7">
+        <v>6967.4</v>
+      </c>
+      <c r="E7">
+        <v>4280.5</v>
+      </c>
+      <c r="F7">
+        <v>468.1</v>
+      </c>
+      <c r="G7">
+        <v>10068.299999999999</v>
+      </c>
+      <c r="H7">
+        <v>2641.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <f>SUM(B3:H3)</f>
+        <v>102357.8</v>
+      </c>
+      <c r="C10" s="8">
+        <f>B10/SUM(B$10:B$14)</f>
+        <v>0.52282852429039151</v>
+      </c>
+      <c r="D10" s="8">
+        <f>C10+C$14*(C10/SUM(C$10:C$13))</f>
+        <v>0.63892242256425869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <f t="shared" ref="B11:B14" si="0">SUM(B4:H4)</f>
+        <v>27282.9</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" ref="C11:C14" si="1">B11/SUM(B$10:B$14)</f>
+        <v>0.13935702355230695</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" ref="D11:D13" si="2">C11+C$14*(C11/SUM(C$10:C$13))</f>
+        <v>0.17030120384160674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <f t="shared" si="0"/>
+        <v>5432.5999999999995</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="1"/>
+        <v>2.7748918412275184E-2</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="2"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>25130.5</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="1"/>
+        <v>0.12836288225889658</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="2"/>
+        <v>0.15686581716538556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <f t="shared" si="0"/>
+        <v>35573.200000000004</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" si="1"/>
+        <v>0.18170265148612963</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AK11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="9">
+        <v>2015</v>
+      </c>
+      <c r="C1">
         <v>2016</v>
       </c>
-      <c r="C1" s="3">
+      <c r="D1" s="9">
         <v>2017</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>2018</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F1" s="9">
         <v>2019</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>2020</v>
       </c>
-      <c r="G1" s="3">
+      <c r="H1" s="9">
         <v>2021</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>2022</v>
       </c>
-      <c r="I1" s="3">
+      <c r="J1" s="9">
         <v>2023</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>2024</v>
       </c>
-      <c r="K1" s="3">
+      <c r="L1" s="9">
         <v>2025</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>2026</v>
       </c>
-      <c r="M1" s="3">
+      <c r="N1" s="9">
         <v>2027</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>2028</v>
       </c>
-      <c r="O1" s="3">
+      <c r="P1" s="9">
         <v>2029</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>2030</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="R1" s="9">
         <v>2031</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>2032</v>
       </c>
-      <c r="S1" s="3">
+      <c r="T1" s="9">
         <v>2033</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>2034</v>
       </c>
-      <c r="U1" s="3">
+      <c r="V1" s="9">
         <v>2035</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>2036</v>
       </c>
-      <c r="W1" s="3">
+      <c r="X1" s="9">
         <v>2037</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>2038</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Z1" s="9">
         <v>2039</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>2040</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AB1" s="9">
         <v>2041</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>2042</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AD1" s="9">
         <v>2043</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>2044</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AF1" s="9">
         <v>2045</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <v>2046</v>
       </c>
-      <c r="AG1" s="3">
+      <c r="AH1" s="9">
         <v>2047</v>
       </c>
-      <c r="AH1">
+      <c r="AI1">
         <v>2048</v>
       </c>
-      <c r="AI1" s="3">
+      <c r="AJ1" s="9">
         <v>2049</v>
       </c>
-      <c r="AJ1">
+      <c r="AK1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
+        <f>$B2</f>
         <v>0</v>
       </c>
       <c r="D2">
+        <f t="shared" ref="D2:AK7" si="0">$B2</f>
         <v>0</v>
       </c>
       <c r="E2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="B3" s="10">
+        <f>Data!D11</f>
+        <v>0.17030120384160674</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <f t="shared" ref="C3:R11" si="1">$B3</f>
+        <v>0.17030120384160674</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" si="0"/>
+        <v>0.17030120384160674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="B4" s="10">
+        <f>Data!D10</f>
+        <v>0.63892242256425869</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" si="0"/>
+        <v>0.63892242256425869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="B5" s="10">
+        <f>Data!D13</f>
+        <v>0.15686581716538556</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="0"/>
+        <v>0.15686581716538556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="B6" s="10">
+        <f>Data!D12</f>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="0"/>
+        <v>3.3910556428748871E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ref="S8:AH11" si="2">$B8</f>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" ref="AI8:AK11" si="3">$B8</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1280,24 +2496,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1531,31 +2729,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31A1BEF0-85EC-41A1-877A-0211DCAC49D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCD2F48-5A0D-45A8-8A47-080361718077}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA1D8FCC-5483-4073-AA23-51B3A6EA22D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F542ADCF-6653-40F9-A453-FD69AD0B2267}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85A40504-3157-4650-9E68-4739AC55B622}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD589BAD-A3FD-46C7-A45E-73C568988D84}"/>
 </file>